--- a/data/trans_dic/P14B23_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B23_2016_2023-Clase-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.02632416385830324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0370737225612852</v>
+        <v>0.03707372256128521</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01554847458483048</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00205887432443661</v>
+        <v>0.002069214151675643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009772299029739391</v>
+        <v>0.009291046998025576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0120172957053379</v>
+        <v>0.01176552889495308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02103122716587491</v>
+        <v>0.02410725388876766</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007911592953497991</v>
+        <v>0.007790776940013996</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01966609052761793</v>
+        <v>0.01965845894007378</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01803150033791383</v>
+        <v>0.01811289126062158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03864924128520557</v>
+        <v>0.03546385456288184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05187871764392264</v>
+        <v>0.04934830499313787</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05431345290253466</v>
+        <v>0.05523456307484727</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02755476874279232</v>
+        <v>0.02641989747891385</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04158823123112415</v>
+        <v>0.0393111203794787</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>0.01166570950809136</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04618725302435591</v>
+        <v>0.04618725302435593</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.00823950127232465</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0329863983458614</v>
+        <v>0.03298639834586139</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009739644642221422</v>
+        <v>0.0119302180359129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003556450618321602</v>
+        <v>0.002960592218122191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03228581219051176</v>
+        <v>0.03157995825822422</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003660619753623231</v>
+        <v>0.003021286773890477</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02386894079525798</v>
+        <v>0.02370327078114099</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01481029910080722</v>
+        <v>0.01728634419608245</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03670348725593626</v>
+        <v>0.0367975306491773</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03011690115862733</v>
+        <v>0.02947569450321204</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06563273940869227</v>
+        <v>0.06628783338120678</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01742977000785361</v>
+        <v>0.01804380793809469</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04552532819753358</v>
+        <v>0.04496918828578474</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.01199546753936619</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04423855742839992</v>
+        <v>0.04423855742839991</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.07769201389973093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06983228952241265</v>
+        <v>0.06983228952241263</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02785755419405456</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004578628307515437</v>
+        <v>0.004808606490013748</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02671271532041017</v>
+        <v>0.02812932345343253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04037890001400327</v>
+        <v>0.03917222031855053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04458228838225445</v>
+        <v>0.04590443841643665</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01659746209679363</v>
+        <v>0.01726806602376163</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03588024514177335</v>
+        <v>0.0368564781911483</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02530488541575203</v>
+        <v>0.02473770694979312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06549365687108955</v>
+        <v>0.07069153506803848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1279917161912947</v>
+        <v>0.1306078857865483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1023866538118719</v>
+        <v>0.1028378119883477</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04366381090077345</v>
+        <v>0.04344616064895448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06827785740181479</v>
+        <v>0.06944856534474407</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.0232859003468759</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0453672814435881</v>
+        <v>0.04536728144358809</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01047357378993799</v>
+        <v>0.009985694229419006</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02890568512478201</v>
+        <v>0.02859559682559745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02117980074588583</v>
+        <v>0.02203948105021663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04400031734812101</v>
+        <v>0.04300450922915986</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01693050554005004</v>
+        <v>0.01676642482093347</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03695925911377913</v>
+        <v>0.03686852919636744</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0267175504673004</v>
+        <v>0.02627098514598237</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05156930201399539</v>
+        <v>0.05156429371599375</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04739124311896998</v>
+        <v>0.04872468522160226</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06752467386815356</v>
+        <v>0.06702986156687474</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03171471136962362</v>
+        <v>0.03052414979919949</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05428485958499918</v>
+        <v>0.0539511887421908</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01446288623523322</v>
+        <v>0.01422171782159304</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01940901802661519</v>
+        <v>0.01966351295191458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04451044244330865</v>
+        <v>0.04759510486941636</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06574792438037291</v>
+        <v>0.06616570235784162</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03375407665381588</v>
+        <v>0.0343998375993735</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04941324031955754</v>
+        <v>0.04979526772208739</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04033862997143238</v>
+        <v>0.03995723022486313</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04932196104632958</v>
+        <v>0.04987638345165498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08132465669008092</v>
+        <v>0.08419724610164103</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09455574786004065</v>
+        <v>0.09526727527609868</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05865704474424403</v>
+        <v>0.0574889281575949</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07228058438177846</v>
+        <v>0.07033125956619354</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.05145612633027064</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06260886164520248</v>
+        <v>0.06260886164520249</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.04135231229786228</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02024717389381033</v>
+        <v>0.01934454553706337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03727161457200272</v>
+        <v>0.03837632041424533</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04951551732349754</v>
+        <v>0.04828341235721278</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03134844717191433</v>
+        <v>0.03089920565636373</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04614376296461963</v>
+        <v>0.04493244272483754</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01681781793591863</v>
+        <v>0.01408821079189278</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1035826132376948</v>
+        <v>0.09582175376390491</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0659844107859439</v>
+        <v>0.06597018550152818</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0788456828317312</v>
+        <v>0.07744655952289566</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05340941511076348</v>
+        <v>0.05297312111446758</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07442601219970682</v>
+        <v>0.07359906499518522</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>0.04389126788021984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0594917859726631</v>
+        <v>0.05949178597266308</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.0291294476770542</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01009611684108514</v>
+        <v>0.01010599449599706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02752214597685845</v>
+        <v>0.02696985636472218</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0372640297290078</v>
+        <v>0.0369352877708528</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05311454481784032</v>
+        <v>0.0528816345173684</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02546104314701897</v>
+        <v>0.02502442826028439</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04196827747882835</v>
+        <v>0.04247566846444276</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01838372282534434</v>
+        <v>0.01830088699748134</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04010452783910981</v>
+        <v>0.03950271955093201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05139302659178681</v>
+        <v>0.05085445910884896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06584923139752913</v>
+        <v>0.06605372715100116</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03376455209744948</v>
+        <v>0.03356154679764146</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05131305606049953</v>
+        <v>0.0516559451436065</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5360</v>
+        <v>5096</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4171</v>
+        <v>4083</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10272</v>
+        <v>11774</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6141</v>
+        <v>6047</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20392</v>
+        <v>20384</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7737</v>
+        <v>7772</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21200</v>
+        <v>19452</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18005</v>
+        <v>17127</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26527</v>
+        <v>26977</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21387</v>
+        <v>20506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43124</v>
+        <v>40763</v>
       </c>
     </row>
     <row r="8">
@@ -1468,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4706</v>
+        <v>5765</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1324</v>
+        <v>1102</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13640</v>
+        <v>13342</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2744</v>
+        <v>2264</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21618</v>
+        <v>21468</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5587</v>
+        <v>6521</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17736</v>
+        <v>17781</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11212</v>
+        <v>10973</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27729</v>
+        <v>28006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13064</v>
+        <v>13524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>41232</v>
+        <v>40729</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2390</v>
+        <v>2510</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12575</v>
+        <v>13242</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6708</v>
+        <v>6507</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8359</v>
+        <v>8607</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11420</v>
+        <v>11881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23618</v>
+        <v>24260</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13207</v>
+        <v>12911</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30831</v>
+        <v>33278</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21262</v>
+        <v>21697</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19197</v>
+        <v>19282</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30042</v>
+        <v>29893</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44943</v>
+        <v>45714</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12041</v>
+        <v>11480</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32695</v>
+        <v>32345</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17492</v>
+        <v>18202</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37829</v>
+        <v>36973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33446</v>
+        <v>33122</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73581</v>
+        <v>73400</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30716</v>
+        <v>30202</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58330</v>
+        <v>58325</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39139</v>
+        <v>40241</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>58055</v>
+        <v>57629</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62653</v>
+        <v>60301</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>108073</v>
+        <v>107409</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8977</v>
+        <v>8828</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10993</v>
+        <v>11137</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32860</v>
+        <v>35137</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54487</v>
+        <v>54834</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>45870</v>
+        <v>46748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>68938</v>
+        <v>69471</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25038</v>
+        <v>24802</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>27936</v>
+        <v>28250</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60037</v>
+        <v>62158</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>78361</v>
+        <v>78951</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>79712</v>
+        <v>78125</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>100841</v>
+        <v>98121</v>
       </c>
     </row>
     <row r="24">
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4803</v>
+        <v>4589</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40292</v>
+        <v>41487</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>41771</v>
+        <v>40732</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>42891</v>
+        <v>42276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>49873</v>
+        <v>48564</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4829</v>
+        <v>4045</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24573</v>
+        <v>22732</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71332</v>
+        <v>71317</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>66514</v>
+        <v>65334</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>73074</v>
+        <v>72477</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>80441</v>
+        <v>79548</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>34183</v>
+        <v>34216</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>94599</v>
+        <v>92701</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>131565</v>
+        <v>130404</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>192831</v>
+        <v>191986</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>176097</v>
+        <v>173077</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>296618</v>
+        <v>300204</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>62242</v>
+        <v>61962</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>137847</v>
+        <v>135779</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>181449</v>
+        <v>179548</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>239064</v>
+        <v>239807</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>233527</v>
+        <v>232123</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>362664</v>
+        <v>365087</v>
       </c>
     </row>
     <row r="32">
